--- a/result/compare-spotbugs/csv/manual_label/rbugs-unmatched-result.xlsx
+++ b/result/compare-spotbugs/csv/manual_label/rbugs-unmatched-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/codegex-evaluation/result/compare-spotbugs/csv/manual_label/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/codegex-analysis/codegex-evaluation/result/compare-spotbugs/csv/manual_label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D192582-7776-3C40-95C5-3594FBDB6AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737D1D7A-C60C-D340-AC40-7CC57051A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rbugs-unmatched-result" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="167">
   <si>
     <t>Is our FP?</t>
   </si>
@@ -482,31 +482,77 @@
   </si>
   <si>
     <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/spring-mvc-angular-js-hibernate-bootstrap-java-single-page-jwt-auth-rest-api-webapp-framework/src/main/java/yourwebproject2/unusedspringsecurity/UserDetailsService.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int lastIndex = sb.indexOf("&gt;", index);
+</t>
+  </si>
+  <si>
+    <t>incomplete modeling of sibling types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return sb.substring(0);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pipe = new File("/tmp/fswebcam-pipe-" + vfile.getName() + ".mjpeg");
+</t>
+  </si>
+  <si>
+    <t>compound expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while ((k = sb.indexOf("}", n)) != -1) {
+</t>
+  </si>
+  <si>
+    <t>IIO_INEFFICIENT_INDEX_OF</t>
+  </si>
+  <si>
+    <t>DMI_USELESS_SUBSTRING</t>
+  </si>
+  <si>
+    <t>webcam-capture</t>
+  </si>
+  <si>
+    <t>DMI_HARDCODED_ABSOLUTE_FILENAME</t>
+  </si>
+  <si>
+    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-core/src/main/java/org/biojava/nbio/core/sequence/loader/UniprotProxySequenceReader.java</t>
+  </si>
+  <si>
+    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-ontology/src/main/java/org/biojava/nbio/ontology/utils/AbstractAnnotation.java</t>
+  </si>
+  <si>
+    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/webcam-capture/webcam-capture-drivers/driver-fswebcam/src/main/java/com/github/sarxos/webcam/ds/fswebcam/FsWebcamDevice.java</t>
+  </si>
+  <si>
+    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/wro4j/wro4j-core/src/main/java/ro/isdc/wro/model/resource/processor/support/CSSMin.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -514,13 +560,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -528,7 +574,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -536,21 +582,21 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -558,14 +604,34 @@
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -626,7 +692,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,12 +748,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,15 +1035,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
@@ -1602,7 +1676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="16">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3204,7 +3278,138 @@
         <v>76</v>
       </c>
     </row>
+    <row r="89" spans="1:13" ht="24" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="1">
+        <v>526</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="24" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="1">
+        <v>656</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="24" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" s="1">
+        <v>150</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="26" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="1">
+        <v>319</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="17" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="1">
+        <v>41</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I47" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I38" r:id="rId2" tooltip="https://github.com/spotbugs/spotbugs/issues/1464" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/result/compare-spotbugs/csv/manual_label/rbugs-unmatched-result.xlsx
+++ b/result/compare-spotbugs/csv/manual_label/rbugs-unmatched-result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/codegex-analysis/codegex-evaluation/result/compare-spotbugs/csv/manual_label/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/xiaoven/rbugs_experiments/result/compare-spotbugs/csv/manual_label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737D1D7A-C60C-D340-AC40-7CC57051A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70535C27-1034-1048-B0B2-AECE65F1B40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rbugs-unmatched-result" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="161">
   <si>
     <t>Is our FP?</t>
   </si>
@@ -58,6 +58,9 @@
     <t>SA_SELF_COMPUTATION</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/domain/pdp/Cut.java</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -70,18 +73,48 @@
     <t>VA_FORMAT_STRING_USES_NEWLINE</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/AFPCalculator.java</t>
+  </si>
+  <si>
     <t>DMI_RANDOM_USED_ONLY_ONCE</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/symmetry/internal/CESymmParameters.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/AFPChainer.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/AFPPostProcessor.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/ce/CECalculator.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/AFPOptimizer.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/StructureAlignmentOptimizer.java</t>
+  </si>
+  <si>
     <t>CNT_ROUGH_CONSTANT_VALUE</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-protein-disorder/src/main/java/org/biojava/nbio/ronn/ORonnModel.java</t>
+  </si>
+  <si>
     <t>spotbugs does not support</t>
   </si>
   <si>
     <t>file issue</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/FatCatAligner.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/demo/DemoAsa.java</t>
+  </si>
+  <si>
     <t>https://github.com/spotbugs/spotbugs/issues/1501</t>
   </si>
   <si>
@@ -94,6 +127,9 @@
     <t>UI_INHERITANCE_UNSAFE_GETRESOURCE</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/chem/ReducedChemCompProvider.java</t>
+  </si>
+  <si>
     <t>try (InputStream inStream = this.getClass().getResourceAsStream("/chemcomp/" + name + ".cif.gz")) {</t>
   </si>
   <si>
@@ -103,12 +139,21 @@
     <t>NM_METHOD_NAMING_CONVENTION</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/quickfixj/quickfixj-core/src/main/java/quickfix/MessageCracker.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/quickfixj/quickfixj-core/src/main/java/quickfix/Message.java</t>
+  </si>
+  <si>
     <t>spring-comparing-template-engines</t>
   </si>
   <si>
     <t>NM_CLASS_NAMING_CONVENTION</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/spring-comparing-template-engines/src/main/java/com/jeroenreijn/examples/model/i18nLayout.java</t>
+  </si>
+  <si>
     <t>report at constructor？</t>
   </si>
   <si>
@@ -118,6 +163,9 @@
     <t>EQ_COMPARING_CLASS_NAMES</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-webapp/src/main/java/org/eclipse/jetty/webapp/Configurations.java</t>
+  </si>
+  <si>
     <t>https://github.com/spotbugs/spotbugs/issues/1496</t>
   </si>
   <si>
@@ -130,15 +178,54 @@
     <t>NM_SAME_SIMPLE_NAME_AS_SUPERCLASS</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-webapp/src/main/java/org/eclipse/jetty/webapp/DecoratingListener.java</t>
+  </si>
+  <si>
     <t>RV_EXCEPTION_NOT_THROWN</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-ant/src/main/java/org/eclipse/jetty/ant/ServerProxyImpl.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-client/src/main/java/org/eclipse/jetty/client/GZIPContentDecoder.java</t>
+  </si>
+  <si>
     <t>RC_REF_COMPARISON_BAD_PRACTICE_BOOLEAN</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-webapp/src/main/java/org/eclipse/jetty/webapp/ClassMatcher.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-osgi/jetty-osgi-boot/src/main/java/org/eclipse/jetty/osgi/annotations/AnnotationParser.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-jndi/src/main/java/org/eclipse/jetty/jndi/java/javaURLContextFactory.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-osgi/jetty-osgi-boot/src/main/java/org/eclipse/jetty/osgi/annotations/AnnotationConfiguration.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-security/src/main/java/org/eclipse/jetty/security/authentication/LoginAuthenticator.java</t>
+  </si>
+  <si>
     <t>SA_SELF_ASSIGNMENT</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-security/src/main/java/org/eclipse/jetty/security/authentication/SslClientCertAuthenticator.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-jndi/src/main/java/org/eclipse/jetty/jndi/java/javaRootURLContext.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-websocket/websocket-javax-tests/src/main/java/org/eclipse/jetty/websocket/javax/tests/WSServer.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-jndi/src/main/java/org/eclipse/jetty/jndi/java/javaNameParser.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-keystore/src/main/java/org/eclipse/jetty/keystore/KeystoreGenerator.java</t>
+  </si>
+  <si>
     <t>https://github.com/spotbugs/spotbugs/issues/1464</t>
   </si>
   <si>
@@ -151,12 +238,30 @@
     <t>BigInteger serial = BigInteger.valueOf(new SecureRandom().nextLong());</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-jndi/src/main/java/org/eclipse/jetty/jndi/local/localContextRoot.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-server/src/main/java/org/eclipse/jetty/server/handler/DefaultHandler.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-client/src/main/java/org/eclipse/jetty/client/proxy/ProxyProtocolClientConnectionFactory.java</t>
+  </si>
+  <si>
     <t>jmh</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jmh/jmh-core/src/main/java/org/openjdk/jmh/profile/ProfilerFactory.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jmh/jmh-core/src/main/java/org/openjdk/jmh/results/Result.java</t>
+  </si>
+  <si>
     <t>SA_SELF_COMPARISON</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/jmh/jmh-core/src/main/java/org/openjdk/jmh/results/format/JSONResultFormat.java</t>
+  </si>
+  <si>
     <t>https://github.com/spotbugs/spotbugs/issues/1473</t>
   </si>
   <si>
@@ -169,6 +274,15 @@
     <t>superword</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/extract/HyphenExtractor.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/tools/WordClassifierForWebster.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/extract/ChineseSynonymAntonymExtractor.java</t>
+  </si>
+  <si>
     <t>int first = new Random().nextInt(254)+1;</t>
   </si>
   <si>
@@ -190,12 +304,33 @@
     <t>STCAL_STATIC_SIMPLE_DATE_FORMAT_INSTANCE</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/model/HistoryRecord.java</t>
+  </si>
+  <si>
     <t>code range?</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/tools/WordClassifierForYouDao.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/tools/WordClassifier.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/tools/WordClassifierForOxford.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/model/User.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/model/Quiz.java</t>
+  </si>
+  <si>
     <t>Word word = words.get(new Random(System.nanoTime()).nextInt(words.size()));</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/model/QuizItem.java</t>
+  </si>
+  <si>
     <t>String selectedDefinition = attrs[new Random(System.nanoTime()).nextInt(attrs.length)].trim();</t>
   </si>
   <si>
@@ -205,21 +340,84 @@
     <t>Benchmark</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01129.java</t>
+  </si>
+  <si>
     <t>int randNumber = new java.util.Random().nextInt(99);</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00401.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00298.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00485.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest02245.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00975.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01433.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00234.java</t>
+  </si>
+  <si>
     <t>nt randNumber = new java.util.Random().nextInt(99);</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00233.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01274.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01275.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest02423.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01680.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00901.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00083.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00974.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00082.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest02246.java</t>
+  </si>
+  <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest02002.java</t>
+  </si>
+  <si>
     <t>wro4j</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/wro4j/wro4j-core/src/main/java/ro/isdc/wro/model/resource/locator/ClasspathUriLocator.java</t>
+  </si>
+  <si>
     <t>spring-mvc-angular-js-hibernate-bootstrap-java-single-page-jwt-auth-rest-api-webapp-framework</t>
   </si>
   <si>
     <t>NM_SAME_SIMPLE_NAME_AS_INTERFACE</t>
   </si>
   <si>
+    <t>/home/zhouying/Documents/workspace/rbugs/experiment/top100repos/spring-mvc-angular-js-hibernate-bootstrap-java-single-page-jwt-auth-rest-api-webapp-framework/src/main/java/yourwebproject2/unusedspringsecurity/UserDetailsService.java</t>
+  </si>
+  <si>
     <t>duplicate</t>
   </si>
   <si>
@@ -286,242 +484,22 @@
     <t>Missed specific kinds of operands</t>
   </si>
   <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/domain/pdp/Cut.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/AFPCalculator.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/symmetry/internal/CESymmParameters.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/AFPChainer.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/AFPPostProcessor.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/ce/CECalculator.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/AFPOptimizer.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/StructureAlignmentOptimizer.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-protein-disorder/src/main/java/org/biojava/nbio/ronn/ORonnModel.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/align/fatcat/calc/FatCatAligner.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/demo/DemoAsa.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-structure/src/main/java/org/biojava/nbio/structure/chem/ReducedChemCompProvider.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/quickfixj/quickfixj-core/src/main/java/quickfix/MessageCracker.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/quickfixj/quickfixj-core/src/main/java/quickfix/Message.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/spring-comparing-template-engines/src/main/java/com/jeroenreijn/examples/model/i18nLayout.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-webapp/src/main/java/org/eclipse/jetty/webapp/Configurations.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-webapp/src/main/java/org/eclipse/jetty/webapp/DecoratingListener.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-ant/src/main/java/org/eclipse/jetty/ant/ServerProxyImpl.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-client/src/main/java/org/eclipse/jetty/client/GZIPContentDecoder.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-webapp/src/main/java/org/eclipse/jetty/webapp/ClassMatcher.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-osgi/jetty-osgi-boot/src/main/java/org/eclipse/jetty/osgi/annotations/AnnotationParser.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-jndi/src/main/java/org/eclipse/jetty/jndi/java/javaURLContextFactory.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-osgi/jetty-osgi-boot/src/main/java/org/eclipse/jetty/osgi/annotations/AnnotationConfiguration.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-security/src/main/java/org/eclipse/jetty/security/authentication/LoginAuthenticator.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-security/src/main/java/org/eclipse/jetty/security/authentication/SslClientCertAuthenticator.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-jndi/src/main/java/org/eclipse/jetty/jndi/java/javaRootURLContext.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-websocket/websocket-javax-tests/src/main/java/org/eclipse/jetty/websocket/javax/tests/WSServer.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-jndi/src/main/java/org/eclipse/jetty/jndi/java/javaNameParser.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-keystore/src/main/java/org/eclipse/jetty/keystore/KeystoreGenerator.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-jndi/src/main/java/org/eclipse/jetty/jndi/local/localContextRoot.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-server/src/main/java/org/eclipse/jetty/server/handler/DefaultHandler.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jetty.project/jetty-client/src/main/java/org/eclipse/jetty/client/proxy/ProxyProtocolClientConnectionFactory.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jmh/jmh-core/src/main/java/org/openjdk/jmh/profile/ProfilerFactory.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jmh/jmh-core/src/main/java/org/openjdk/jmh/results/Result.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/jmh/jmh-core/src/main/java/org/openjdk/jmh/results/format/JSONResultFormat.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/extract/HyphenExtractor.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/tools/WordClassifierForWebster.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/extract/ChineseSynonymAntonymExtractor.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/model/HistoryRecord.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/tools/WordClassifierForYouDao.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/tools/WordClassifier.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/tools/WordClassifierForOxford.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/model/User.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/model/Quiz.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/superword/src/main/java/org/apdplat/superword/model/QuizItem.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01129.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00401.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00298.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00485.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest02245.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00975.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01433.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00234.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00233.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01274.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01275.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest02423.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest01680.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00901.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00083.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00974.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest00082.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest02246.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/Benchmark/src/main/java/org/owasp/benchmark/testcode/BenchmarkTest02002.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/wro4j/wro4j-core/src/main/java/ro/isdc/wro/model/resource/locator/ClasspathUriLocator.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/spring-mvc-angular-js-hibernate-bootstrap-java-single-page-jwt-auth-rest-api-webapp-framework/src/main/java/yourwebproject2/unusedspringsecurity/UserDetailsService.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int lastIndex = sb.indexOf("&gt;", index);
-</t>
-  </si>
-  <si>
-    <t>incomplete modeling of sibling types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return sb.substring(0);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pipe = new File("/tmp/fswebcam-pipe-" + vfile.getName() + ".mjpeg");
-</t>
-  </si>
-  <si>
-    <t>compound expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while ((k = sb.indexOf("}", n)) != -1) {
-</t>
-  </si>
-  <si>
     <t>IIO_INEFFICIENT_INDEX_OF</t>
   </si>
   <si>
+    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-core/src/main/java/org/biojava/nbio/core/sequence/loader/UniprotProxySequenceReader.java</t>
+  </si>
+  <si>
     <t>DMI_USELESS_SUBSTRING</t>
   </si>
   <si>
+    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-ontology/src/main/java/org/biojava/nbio/ontology/utils/AbstractAnnotation.java</t>
+  </si>
+  <si>
     <t>webcam-capture</t>
   </si>
   <si>
     <t>DMI_HARDCODED_ABSOLUTE_FILENAME</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-core/src/main/java/org/biojava/nbio/core/sequence/loader/UniprotProxySequenceReader.java</t>
-  </si>
-  <si>
-    <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/biojava/biojava-ontology/src/main/java/org/biojava/nbio/ontology/utils/AbstractAnnotation.java</t>
   </si>
   <si>
     <t>/home/codegex/Documents/workspace/rbugs/experiment/top100repos/webcam-capture/webcam-capture-drivers/driver-fswebcam/src/main/java/com/github/sarxos/webcam/ds/fswebcam/FsWebcamDevice.java</t>
@@ -534,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,7 +538,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -627,12 +604,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -692,7 +663,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +685,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -725,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
@@ -739,22 +719,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,15 +1003,16 @@
   <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89:XFD89"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="8" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="21" hidden="1" customWidth="1"/>
@@ -1090,20 +1056,20 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>87</v>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1113,22 +1079,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D3">
         <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1136,25 +1102,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>89</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1162,22 +1128,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1185,25 +1151,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D6">
         <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1211,22 +1177,22 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D7">
         <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1234,22 +1200,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D8">
         <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1257,22 +1223,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D9">
         <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1280,22 +1246,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D10">
         <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1303,22 +1269,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D11">
         <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1326,22 +1292,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D12">
         <v>279</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1349,22 +1315,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D13">
         <v>314</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1372,22 +1338,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>92</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1950</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1395,22 +1361,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>93</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D15">
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1418,22 +1384,22 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>93</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D16">
         <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1441,22 +1407,22 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D17">
         <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1464,31 +1430,31 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D18">
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1496,22 +1462,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D19">
         <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1519,28 +1485,28 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>97</v>
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
       </c>
       <c r="D20">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1548,1864 +1514,1834 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
       </c>
       <c r="D21">
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>99</v>
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D22">
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>100</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D23">
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="D24">
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>73</v>
+        <v>43</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
       </c>
       <c r="D25">
         <v>468</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>103</v>
+        <v>50</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D26">
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>77</v>
+        <v>43</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>104</v>
+        <v>52</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D27">
         <v>291</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>78</v>
+        <v>12</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D28">
         <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D29">
         <v>780</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>107</v>
+        <v>50</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D30">
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>108</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D31">
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>109</v>
+        <v>50</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="D32">
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>110</v>
+        <v>55</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="D33">
         <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>111</v>
+        <v>61</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D34">
         <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>112</v>
+        <v>41</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D35">
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D36">
         <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D37">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>84</v>
+        <v>12</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>115</v>
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
       </c>
       <c r="D38">
         <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>116</v>
+        <v>41</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D39">
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>85</v>
+        <v>12</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>117</v>
+        <v>33</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D40">
         <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D41">
         <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D42">
         <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N42" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N42" s="11"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D43">
         <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D44">
         <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D45">
         <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D46">
         <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>121</v>
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
       </c>
       <c r="D47">
         <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="L47" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M47" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>122</v>
+        <v>17</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="D48" s="1">
         <v>180</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L48" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="12"/>
       <c r="M48" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D49" s="1">
         <v>200</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="M49" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D50" s="1">
         <v>305</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D51" s="1">
         <v>308</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D52" s="1">
         <v>310</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D53" s="1">
         <v>313</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D54" s="1">
         <v>314</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="1" customFormat="1">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D55" s="1">
         <v>318</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="1" customFormat="1">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D56" s="1">
         <v>319</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D57" s="1">
         <v>321</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="1" customFormat="1">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D58" s="1">
         <v>322</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>125</v>
+        <v>92</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="D59">
         <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>126</v>
+        <v>17</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="1">
         <v>258</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="M60" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D61" s="1">
         <v>259</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="M61" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>128</v>
+        <v>17</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D62" s="1">
         <v>201</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="M62" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>129</v>
+        <v>92</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>55</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>130</v>
+        <v>17</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D64" s="1">
         <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>131</v>
+        <v>17</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D65" s="1">
         <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>131</v>
+        <v>17</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D66" s="1">
         <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="L66" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>131</v>
+        <v>17</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D67" s="1">
         <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="L67" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>132</v>
+        <v>17</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D68" s="1">
         <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L68" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D69" s="1">
         <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L69" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>134</v>
+        <v>17</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D70" s="1">
         <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L70" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>135</v>
+        <v>17</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D71" s="1">
         <v>56</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L71" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>136</v>
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D72" s="1">
         <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L72" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D73" s="1">
         <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L73" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>138</v>
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D74" s="1">
         <v>62</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K74" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L74" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D75" s="1">
         <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K75" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L75" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>140</v>
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D76" s="1">
         <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L76" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D77" s="1">
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L77" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>142</v>
+        <v>17</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D78" s="1">
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L78" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>143</v>
+        <v>17</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D79" s="1">
         <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K79" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L79" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>144</v>
+        <v>17</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D80" s="1">
         <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L80" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D81" s="1">
         <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K81" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L81" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>146</v>
+        <v>17</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D82" s="1">
         <v>73</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L82" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>147</v>
+        <v>17</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D83" s="1">
         <v>65</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L83" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>148</v>
+        <v>17</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D84" s="1">
         <v>68</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K84" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L84" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>149</v>
+        <v>17</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D85" s="1">
         <v>53</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L85" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D86" s="1">
         <v>62</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K86" s="13" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="L86" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>151</v>
+        <v>33</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="D87">
         <v>120</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>152</v>
+        <v>129</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="D88">
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M88" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="24" customHeight="1">
-      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89">
+        <v>526</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90">
+        <v>656</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91">
+        <v>150</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D89" s="1">
-        <v>526</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H89" s="20" t="s">
+      <c r="D92">
+        <v>319</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="24" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D90" s="1">
-        <v>656</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H90" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="24" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="C93" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D91" s="1">
-        <v>150</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H91" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="26" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="1">
-        <v>319</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="H92" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="17" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>41</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H93" s="20" t="s">
-        <v>158</v>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
